--- a/results/fs_real/feature_importance.xlsx
+++ b/results/fs_real/feature_importance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majidmohammadi/surfdrive/Research/GP/orthogonal-additive-gaussian-processes-main/results/fs_real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C313D-F960-6547-BEC2-8D692B1EA0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5254B9D-6F0C-5C4B-B146-995A2E223FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-3780" windowWidth="33920" windowHeight="17100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-3780" windowWidth="33920" windowHeight="17100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sonar" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
     <t>Feature Selector</t>
   </si>
@@ -427,291 +427,6 @@
   </si>
   <si>
     <t>AGP-SHAP2</t>
-  </si>
-  <si>
-    <t>0.0121</t>
-  </si>
-  <si>
-    <t>0.01132</t>
-  </si>
-  <si>
-    <t>0.0178</t>
-  </si>
-  <si>
-    <t>0.01199</t>
-  </si>
-  <si>
-    <t>0.01621</t>
-  </si>
-  <si>
-    <t>0.01231</t>
-  </si>
-  <si>
-    <t>0.02092</t>
-  </si>
-  <si>
-    <t>0.01187</t>
-  </si>
-  <si>
-    <t>0.01746</t>
-  </si>
-  <si>
-    <t>0.01739</t>
-  </si>
-  <si>
-    <t>0.02105</t>
-  </si>
-  <si>
-    <t>0.01871</t>
-  </si>
-  <si>
-    <t>0.01893</t>
-  </si>
-  <si>
-    <t>0.01994</t>
-  </si>
-  <si>
-    <t>0.02491</t>
-  </si>
-  <si>
-    <t>0.00571</t>
-  </si>
-  <si>
-    <t>0.00667</t>
-  </si>
-  <si>
-    <t>0.00642</t>
-  </si>
-  <si>
-    <t>0.00671</t>
-  </si>
-  <si>
-    <t>0.00672</t>
-  </si>
-  <si>
-    <t>0.00318</t>
-  </si>
-  <si>
-    <t>0.00335</t>
-  </si>
-  <si>
-    <t>0.00628</t>
-  </si>
-  <si>
-    <t>0.00577</t>
-  </si>
-  <si>
-    <t>0.00592</t>
-  </si>
-  <si>
-    <t>0.00588</t>
-  </si>
-  <si>
-    <t>0.00627</t>
-  </si>
-  <si>
-    <t>0.00624</t>
-  </si>
-  <si>
-    <t>0.01219</t>
-  </si>
-  <si>
-    <t>0.00156</t>
-  </si>
-  <si>
-    <t>0.00155</t>
-  </si>
-  <si>
-    <t>0.00232</t>
-  </si>
-  <si>
-    <t>0.00896</t>
-  </si>
-  <si>
-    <t>0.00488</t>
-  </si>
-  <si>
-    <t>0.00495</t>
-  </si>
-  <si>
-    <t>0.00491</t>
-  </si>
-  <si>
-    <t>0.01641</t>
-  </si>
-  <si>
-    <t>0.00903</t>
-  </si>
-  <si>
-    <t>0.00918</t>
-  </si>
-  <si>
-    <t>0.00916</t>
-  </si>
-  <si>
-    <t>0.00915</t>
-  </si>
-  <si>
-    <t>0.00917</t>
-  </si>
-  <si>
-    <t>0.00287</t>
-  </si>
-  <si>
-    <t>0.0044</t>
-  </si>
-  <si>
-    <t>0.00509</t>
-  </si>
-  <si>
-    <t>0.00403</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>0.00461</t>
-  </si>
-  <si>
-    <t>0.00655</t>
-  </si>
-  <si>
-    <t>0.00762</t>
-  </si>
-  <si>
-    <t>0.01271</t>
-  </si>
-  <si>
-    <t>0.00842</t>
-  </si>
-  <si>
-    <t>0.00955</t>
-  </si>
-  <si>
-    <t>0.00979</t>
-  </si>
-  <si>
-    <t>0.01017</t>
-  </si>
-  <si>
-    <t>0.00975</t>
-  </si>
-  <si>
-    <t>0.01236</t>
-  </si>
-  <si>
-    <t>0.00962</t>
-  </si>
-  <si>
-    <t>0.01186</t>
-  </si>
-  <si>
-    <t>0.01184</t>
-  </si>
-  <si>
-    <t>0.01206</t>
-  </si>
-  <si>
-    <t>0.01191</t>
-  </si>
-  <si>
-    <t>0.01112</t>
-  </si>
-  <si>
-    <t>0.01463</t>
-  </si>
-  <si>
-    <t>0.00736</t>
-  </si>
-  <si>
-    <t>0.00894</t>
-  </si>
-  <si>
-    <t>0.00329</t>
-  </si>
-  <si>
-    <t>0.0029</t>
-  </si>
-  <si>
-    <t>0.00308</t>
-  </si>
-  <si>
-    <t>0.0076</t>
-  </si>
-  <si>
-    <t>0.00173</t>
-  </si>
-  <si>
-    <t>0.00533</t>
-  </si>
-  <si>
-    <t>0.00185</t>
-  </si>
-  <si>
-    <t>0.00895</t>
-  </si>
-  <si>
-    <t>0.01044</t>
-  </si>
-  <si>
-    <t>0.01036</t>
-  </si>
-  <si>
-    <t>0.01041</t>
-  </si>
-  <si>
-    <t>0.01297</t>
-  </si>
-  <si>
-    <t>0.00507</t>
-  </si>
-  <si>
-    <t>0.0059</t>
-  </si>
-  <si>
-    <t>0.00512</t>
-  </si>
-  <si>
-    <t>0.00502</t>
-  </si>
-  <si>
-    <t>0.00515</t>
-  </si>
-  <si>
-    <t>0.00635</t>
-  </si>
-  <si>
-    <t>0.00601</t>
-  </si>
-  <si>
-    <t>0.00716</t>
-  </si>
-  <si>
-    <t>0.0038</t>
-  </si>
-  <si>
-    <t>0.00367</t>
-  </si>
-  <si>
-    <t>0.0132</t>
-  </si>
-  <si>
-    <t>0.00774</t>
-  </si>
-  <si>
-    <t>0.00295</t>
-  </si>
-  <si>
-    <t>0.00337</t>
-  </si>
-  <si>
-    <t>0.00938</t>
-  </si>
-  <si>
-    <t>0.00758</t>
-  </si>
-  <si>
-    <t>0.00944</t>
   </si>
 </sst>
 </file>
@@ -2838,8 +2553,8 @@
   </sheetPr>
   <dimension ref="A1:DP14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="CV8" sqref="CV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5389,359 +5104,359 @@
       <c r="B8" s="3">
         <v>6.6651546955108643</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW8" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX8" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BG8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BN8" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BR8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="BT8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BU8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BV8" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BW8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="BX8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BY8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="BZ8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="CA8" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="CC8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="CD8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="CE8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CG8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CH8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CI8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CJ8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="CK8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CL8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="CM8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="CO8" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="CQ8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="CR8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="CS8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CT8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="CU8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="CV8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="CW8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="CX8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CY8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CZ8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="DA8" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="DB8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="DC8" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="DD8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="DE8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="DF8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="DG8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="DH8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="DI8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="DJ8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="DK8" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="DL8" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="DM8" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN8" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="DO8" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="DP8" s="6" t="s">
-        <v>227</v>
+      <c r="C8" s="6">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.132E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.6209999999999999E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.231E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.0920000000000001E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.187E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.746E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1.7389999999999999E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1.8710000000000001E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1.8929999999999999E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.9939999999999999E-2</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>2.4910000000000002E-2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="S8" s="6">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="T8" s="6">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="U8" s="6">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="V8" s="6">
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="W8" s="6">
+        <v>6.4200000000000004E-3</v>
+      </c>
+      <c r="X8" s="6">
+        <v>6.7200000000000003E-3</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>6.28E-3</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>5.77E-3</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>5.9199999999999999E-3</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>5.8799999999999998E-3</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>6.2700000000000004E-3</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>1.2189999999999999E-2</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>1.1990000000000001E-2</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>1.56E-3</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>2.32E-3</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>1.56E-3</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>4.8799999999999998E-3</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>4.8799999999999998E-3</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="AT8" s="6">
+        <v>4.9100000000000003E-3</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>4.9100000000000003E-3</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>1.6410000000000001E-2</v>
+      </c>
+      <c r="AX8" s="6">
+        <v>1.6410000000000001E-2</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>9.1800000000000007E-3</v>
+      </c>
+      <c r="BA8" s="6">
+        <v>9.1800000000000007E-3</v>
+      </c>
+      <c r="BB8" s="6">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="BC8" s="6">
+        <v>9.1800000000000007E-3</v>
+      </c>
+      <c r="BD8" s="6">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="BE8" s="6">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="BF8" s="6">
+        <v>9.1699999999999993E-3</v>
+      </c>
+      <c r="BG8" s="6">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="BH8" s="6">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="BI8" s="6">
+        <v>5.0899999999999999E-3</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="BK8" s="6">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="BL8" s="6">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="BM8" s="6">
+        <v>6.5500000000000003E-3</v>
+      </c>
+      <c r="BN8" s="6">
+        <v>7.62E-3</v>
+      </c>
+      <c r="BO8" s="6">
+        <v>1.2710000000000001E-2</v>
+      </c>
+      <c r="BP8" s="6">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="BQ8" s="6">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="BR8" s="6">
+        <v>9.7900000000000001E-3</v>
+      </c>
+      <c r="BS8" s="6">
+        <v>1.017E-2</v>
+      </c>
+      <c r="BT8" s="6">
+        <v>9.75E-3</v>
+      </c>
+      <c r="BU8" s="6">
+        <v>1.2359999999999999E-2</v>
+      </c>
+      <c r="BV8" s="6">
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="BW8" s="6">
+        <v>1.1860000000000001E-2</v>
+      </c>
+      <c r="BX8" s="6">
+        <v>1.184E-2</v>
+      </c>
+      <c r="BY8" s="6">
+        <v>1.206E-2</v>
+      </c>
+      <c r="BZ8" s="6">
+        <v>1.191E-2</v>
+      </c>
+      <c r="CA8" s="6">
+        <v>1.206E-2</v>
+      </c>
+      <c r="CB8" s="6">
+        <v>1.191E-2</v>
+      </c>
+      <c r="CC8" s="6">
+        <v>1.112E-2</v>
+      </c>
+      <c r="CD8" s="6">
+        <v>1.4630000000000001E-2</v>
+      </c>
+      <c r="CE8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CF8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CG8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CH8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CI8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CJ8" s="6">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="CK8" s="6">
+        <v>8.94E-3</v>
+      </c>
+      <c r="CL8" s="6">
+        <v>8.94E-3</v>
+      </c>
+      <c r="CM8" s="6">
+        <v>3.29E-3</v>
+      </c>
+      <c r="CN8" s="6">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="CO8" s="6">
+        <v>3.0799999999999998E-3</v>
+      </c>
+      <c r="CP8" s="6">
+        <v>7.6E-3</v>
+      </c>
+      <c r="CQ8" s="6">
+        <v>1.73E-3</v>
+      </c>
+      <c r="CR8" s="6">
+        <v>5.3299999999999997E-3</v>
+      </c>
+      <c r="CS8" s="6">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="CT8" s="6">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="CU8" s="6">
+        <v>1.044E-2</v>
+      </c>
+      <c r="CV8" s="6">
+        <v>1.0359999999999999E-2</v>
+      </c>
+      <c r="CW8" s="6">
+        <v>1.0410000000000001E-2</v>
+      </c>
+      <c r="CX8" s="6">
+        <v>1.2970000000000001E-2</v>
+      </c>
+      <c r="CY8" s="6">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="CZ8" s="6">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="DA8" s="6">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="DB8" s="6">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="DC8" s="6">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="DD8" s="6">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="DE8" s="6">
+        <v>6.0099999999999997E-3</v>
+      </c>
+      <c r="DF8" s="6">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="DG8" s="6">
+        <v>7.1599999999999997E-3</v>
+      </c>
+      <c r="DH8" s="6">
+        <v>3.8E-3</v>
+      </c>
+      <c r="DI8" s="6">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="DJ8" s="6">
+        <v>1.32E-2</v>
+      </c>
+      <c r="DK8" s="6">
+        <v>7.7400000000000004E-3</v>
+      </c>
+      <c r="DL8" s="6">
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="DM8" s="6">
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="DN8" s="6">
+        <v>9.3799999999999994E-3</v>
+      </c>
+      <c r="DO8" s="6">
+        <v>7.5799999999999999E-3</v>
+      </c>
+      <c r="DP8" s="6">
+        <v>9.4400000000000005E-3</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="16" x14ac:dyDescent="0.2">
@@ -10774,8 +10489,8 @@
   </sheetPr>
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
